--- a/analysis/xlsx/2021/2021_연령대별_판매량.xlsx
+++ b/analysis/xlsx/2021/2021_연령대별_판매량.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1137201000</v>
+        <v>1194409000</v>
       </c>
       <c r="D3" t="n">
-        <v>1762888000</v>
+        <v>1827539000</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1155804600</v>
+        <v>1087701000</v>
       </c>
       <c r="D4" t="n">
-        <v>1767089200</v>
+        <v>1670997000</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>745760000</v>
+        <v>756655600</v>
       </c>
       <c r="D5" t="n">
-        <v>1144177000</v>
+        <v>1175618200</v>
       </c>
     </row>
   </sheetData>
